--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Psen1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Psen1-Notch1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H2">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I2">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J2">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N2">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O2">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P2">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q2">
-        <v>436.6814830569707</v>
+        <v>950.2122156186867</v>
       </c>
       <c r="R2">
-        <v>3930.133347512736</v>
+        <v>8551.909940568179</v>
       </c>
       <c r="S2">
-        <v>0.01870209642576566</v>
+        <v>0.03684216074101344</v>
       </c>
       <c r="T2">
-        <v>0.01870209642576566</v>
+        <v>0.03684216074101344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H3">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I3">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J3">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>17.152367</v>
       </c>
       <c r="O3">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P3">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q3">
-        <v>55.32123197740533</v>
+        <v>86.8014952326081</v>
       </c>
       <c r="R3">
-        <v>497.8910877966479</v>
+        <v>781.2134570934729</v>
       </c>
       <c r="S3">
-        <v>0.002369285291399922</v>
+        <v>0.003365516236641791</v>
       </c>
       <c r="T3">
-        <v>0.002369285291399922</v>
+        <v>0.003365516236641789</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H4">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I4">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J4">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N4">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O4">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P4">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q4">
-        <v>137.1206477765973</v>
+        <v>244.7968561558663</v>
       </c>
       <c r="R4">
-        <v>1234.085829989376</v>
+        <v>2203.171705402797</v>
       </c>
       <c r="S4">
-        <v>0.005872572289370027</v>
+        <v>0.009491400947226267</v>
       </c>
       <c r="T4">
-        <v>0.005872572289370027</v>
+        <v>0.009491400947226267</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H5">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I5">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J5">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N5">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O5">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P5">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q5">
-        <v>317.9328194175467</v>
+        <v>172.7137040855148</v>
       </c>
       <c r="R5">
-        <v>2861.395374757919</v>
+        <v>1554.423336769633</v>
       </c>
       <c r="S5">
-        <v>0.01361635534448976</v>
+        <v>0.006696552563209576</v>
       </c>
       <c r="T5">
-        <v>0.01361635534448976</v>
+        <v>0.006696552563209574</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H6">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I6">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J6">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N6">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O6">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P6">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q6">
-        <v>276.0627932908907</v>
+        <v>554.8517013596979</v>
       </c>
       <c r="R6">
-        <v>2484.565139618016</v>
+        <v>4993.665312237281</v>
       </c>
       <c r="S6">
-        <v>0.01182315527452507</v>
+        <v>0.0215130212313772</v>
       </c>
       <c r="T6">
-        <v>0.01182315527452507</v>
+        <v>0.0215130212313772</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H7">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I7">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J7">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N7">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O7">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P7">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q7">
-        <v>154.28168663544</v>
+        <v>184.5030199814946</v>
       </c>
       <c r="R7">
-        <v>1388.53517971896</v>
+        <v>1660.527179833451</v>
       </c>
       <c r="S7">
-        <v>0.006607541405206147</v>
+        <v>0.007153654528567355</v>
       </c>
       <c r="T7">
-        <v>0.006607541405206146</v>
+        <v>0.007153654528567355</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>29.79141</v>
       </c>
       <c r="H8">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I8">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J8">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N8">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O8">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P8">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q8">
-        <v>1344.51854774468</v>
+        <v>1864.6068147234</v>
       </c>
       <c r="R8">
-        <v>12100.66692970212</v>
+        <v>16781.4613325106</v>
       </c>
       <c r="S8">
-        <v>0.05758273822403157</v>
+        <v>0.07229558077413294</v>
       </c>
       <c r="T8">
-        <v>0.05758273822403157</v>
+        <v>0.07229558077413294</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>29.79141</v>
       </c>
       <c r="H9">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I9">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J9">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>17.152367</v>
       </c>
       <c r="O9">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P9">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q9">
         <v>170.33106592249</v>
@@ -1013,10 +1013,10 @@
         <v>1532.97959330241</v>
       </c>
       <c r="S9">
-        <v>0.007294900614712486</v>
+        <v>0.006604171580575421</v>
       </c>
       <c r="T9">
-        <v>0.007294900614712486</v>
+        <v>0.006604171580575419</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>29.79141</v>
       </c>
       <c r="H10">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I10">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J10">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N10">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O10">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P10">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q10">
-        <v>422.1870204428799</v>
+        <v>480.36625788261</v>
       </c>
       <c r="R10">
-        <v>3799.68318398592</v>
+        <v>4323.29632094349</v>
       </c>
       <c r="S10">
-        <v>0.0180813308381096</v>
+        <v>0.01862502985814298</v>
       </c>
       <c r="T10">
-        <v>0.01808133083810961</v>
+        <v>0.01862502985814298</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>29.79141</v>
       </c>
       <c r="H11">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I11">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J11">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N11">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O11">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P11">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q11">
-        <v>978.8978677345999</v>
+        <v>338.91708014329</v>
       </c>
       <c r="R11">
-        <v>8810.080809611398</v>
+        <v>3050.25372128961</v>
       </c>
       <c r="S11">
-        <v>0.04192401790245008</v>
+        <v>0.01314068303824537</v>
       </c>
       <c r="T11">
-        <v>0.04192401790245008</v>
+        <v>0.01314068303824537</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>29.79141</v>
       </c>
       <c r="H12">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I12">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J12">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N12">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O12">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P12">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q12">
-        <v>849.98233340108</v>
+        <v>1088.78863743353</v>
       </c>
       <c r="R12">
-        <v>7649.84100060972</v>
+        <v>9799.097736901771</v>
       </c>
       <c r="S12">
-        <v>0.03640285236777581</v>
+        <v>0.04221512345765539</v>
       </c>
       <c r="T12">
-        <v>0.03640285236777581</v>
+        <v>0.04221512345765539</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,13 +1228,13 @@
         <v>29.79141</v>
       </c>
       <c r="H13">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I13">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J13">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N13">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O13">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P13">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q13">
-        <v>475.0249261923</v>
+        <v>362.05132152563</v>
       </c>
       <c r="R13">
-        <v>4275.2243357307</v>
+        <v>3258.46189373067</v>
       </c>
       <c r="S13">
-        <v>0.0203442607918678</v>
+        <v>0.01403765681486076</v>
       </c>
       <c r="T13">
-        <v>0.0203442607918678</v>
+        <v>0.01403765681486076</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H14">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I14">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J14">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N14">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O14">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P14">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q14">
-        <v>1493.578295531877</v>
+        <v>2674.323227444961</v>
       </c>
       <c r="R14">
-        <v>13442.2046597869</v>
+        <v>24068.90904700464</v>
       </c>
       <c r="S14">
-        <v>0.06396663560571371</v>
+        <v>0.1036903594791204</v>
       </c>
       <c r="T14">
-        <v>0.06396663560571372</v>
+        <v>0.1036903594791204</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H15">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I15">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J15">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>17.152367</v>
       </c>
       <c r="O15">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P15">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q15">
-        <v>189.2147814125586</v>
+        <v>244.2983273229894</v>
       </c>
       <c r="R15">
-        <v>1702.933032713028</v>
+        <v>2198.684945906904</v>
       </c>
       <c r="S15">
-        <v>0.00810364813819269</v>
+        <v>0.009472071707827968</v>
       </c>
       <c r="T15">
-        <v>0.008103648138192691</v>
+        <v>0.009472071707827965</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H16">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I16">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J16">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N16">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O16">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P16">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q16">
-        <v>468.9926899457705</v>
+        <v>688.9681143457841</v>
       </c>
       <c r="R16">
-        <v>4220.934209511935</v>
+        <v>6200.713029112057</v>
       </c>
       <c r="S16">
-        <v>0.02008591353345915</v>
+        <v>0.02671305798529783</v>
       </c>
       <c r="T16">
-        <v>0.02008591353345915</v>
+        <v>0.02671305798529783</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H17">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I17">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J17">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N17">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O17">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P17">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q17">
-        <v>1087.423160687013</v>
+        <v>486.0938040385095</v>
       </c>
       <c r="R17">
-        <v>9786.808446183119</v>
+        <v>4374.844236346585</v>
       </c>
       <c r="S17">
-        <v>0.04657191476132766</v>
+        <v>0.01884710148873113</v>
       </c>
       <c r="T17">
-        <v>0.04657191476132767</v>
+        <v>0.01884710148873112</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H18">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I18">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J18">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N18">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O18">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P18">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q18">
-        <v>944.2154345009972</v>
+        <v>1561.601470012099</v>
       </c>
       <c r="R18">
-        <v>8497.938910508976</v>
+        <v>14054.41323010889</v>
       </c>
       <c r="S18">
-        <v>0.04043864644572084</v>
+        <v>0.06054728767523666</v>
       </c>
       <c r="T18">
-        <v>0.04043864644572084</v>
+        <v>0.06054728767523666</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H19">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I19">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J19">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N19">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O19">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P19">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q19">
-        <v>527.6884582868399</v>
+        <v>519.2742250203388</v>
       </c>
       <c r="R19">
-        <v>4749.196124581559</v>
+        <v>4673.468025183049</v>
       </c>
       <c r="S19">
-        <v>0.02259972270991985</v>
+        <v>0.02013359137296306</v>
       </c>
       <c r="T19">
-        <v>0.02259972270991985</v>
+        <v>0.02013359137296306</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H20">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I20">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J20">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N20">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O20">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P20">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q20">
-        <v>624.4521149839592</v>
+        <v>625.9272898902933</v>
       </c>
       <c r="R20">
-        <v>5620.069034855633</v>
+        <v>5633.34560901264</v>
       </c>
       <c r="S20">
-        <v>0.02674389485431809</v>
+        <v>0.02426880379696058</v>
       </c>
       <c r="T20">
-        <v>0.02674389485431809</v>
+        <v>0.02426880379696058</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H21">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I21">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J21">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>17.152367</v>
       </c>
       <c r="O21">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P21">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q21">
-        <v>79.10905694918621</v>
+        <v>57.17820059174488</v>
       </c>
       <c r="R21">
-        <v>711.9815125426759</v>
+        <v>514.603805325704</v>
       </c>
       <c r="S21">
-        <v>0.003388064913716635</v>
+        <v>0.002216945249131933</v>
       </c>
       <c r="T21">
-        <v>0.003388064913716635</v>
+        <v>0.002216945249131932</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H22">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I22">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J22">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N22">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O22">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P22">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q22">
-        <v>196.0817708885902</v>
+        <v>161.2534865672507</v>
       </c>
       <c r="R22">
-        <v>1764.735937997312</v>
+        <v>1451.281379105256</v>
       </c>
       <c r="S22">
-        <v>0.008397746020329602</v>
+        <v>0.006252210584654862</v>
       </c>
       <c r="T22">
-        <v>0.008397746020329604</v>
+        <v>0.006252210584654861</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H23">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I23">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J23">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N23">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O23">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P23">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q23">
-        <v>454.6421801956711</v>
+        <v>113.7706071845982</v>
       </c>
       <c r="R23">
-        <v>4091.779621761039</v>
+        <v>1023.935464661384</v>
       </c>
       <c r="S23">
-        <v>0.01947131312671317</v>
+        <v>0.004411177764925418</v>
       </c>
       <c r="T23">
-        <v>0.01947131312671317</v>
+        <v>0.004411177764925416</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H24">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I24">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J24">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N24">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O24">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P24">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q24">
-        <v>394.7682735069992</v>
+        <v>365.4939559969431</v>
       </c>
       <c r="R24">
-        <v>3552.914461562993</v>
+        <v>3289.445603972488</v>
       </c>
       <c r="S24">
-        <v>0.01690704690585134</v>
+        <v>0.01417113656862512</v>
       </c>
       <c r="T24">
-        <v>0.01690704690585134</v>
+        <v>0.01417113656862512</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H25">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I25">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J25">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N25">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O25">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P25">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q25">
-        <v>220.62196191228</v>
+        <v>121.5365087665164</v>
       </c>
       <c r="R25">
-        <v>1985.59765721052</v>
+        <v>1093.828578898648</v>
       </c>
       <c r="S25">
-        <v>0.009448747806846573</v>
+        <v>0.004712281654853451</v>
       </c>
       <c r="T25">
-        <v>0.009448747806846571</v>
+        <v>0.00471228165485345</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H26">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I26">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J26">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N26">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O26">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P26">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q26">
-        <v>1818.289987024274</v>
+        <v>2863.561555472673</v>
       </c>
       <c r="R26">
-        <v>16364.60988321847</v>
+        <v>25772.05399925406</v>
       </c>
       <c r="S26">
-        <v>0.07787331496008423</v>
+        <v>0.1110276140260093</v>
       </c>
       <c r="T26">
-        <v>0.07787331496008423</v>
+        <v>0.1110276140260093</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H27">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I27">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J27">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>17.152367</v>
       </c>
       <c r="O27">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P27">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q27">
-        <v>230.3510592438835</v>
+        <v>261.5851707860879</v>
       </c>
       <c r="R27">
-        <v>2073.159533194952</v>
+        <v>2354.26653707479</v>
       </c>
       <c r="S27">
-        <v>0.009865423401052084</v>
+        <v>0.01014232689409447</v>
       </c>
       <c r="T27">
-        <v>0.009865423401052084</v>
+        <v>0.01014232689409447</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H28">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I28">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J28">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N28">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O28">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P28">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q28">
-        <v>570.9541405810915</v>
+        <v>737.7203267504775</v>
       </c>
       <c r="R28">
-        <v>5138.587265229823</v>
+        <v>6639.482940754298</v>
       </c>
       <c r="S28">
-        <v>0.02445269562859996</v>
+        <v>0.02860330609658345</v>
       </c>
       <c r="T28">
-        <v>0.02445269562859996</v>
+        <v>0.02860330609658345</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H29">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I29">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J29">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N29">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O29">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P29">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q29">
-        <v>1323.834612922898</v>
+        <v>520.4903862455012</v>
       </c>
       <c r="R29">
-        <v>11914.51151630608</v>
+        <v>4684.413476209511</v>
       </c>
       <c r="S29">
-        <v>0.0566968913115561</v>
+        <v>0.02018074505780098</v>
       </c>
       <c r="T29">
-        <v>0.0566968913115561</v>
+        <v>0.02018074505780098</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H30">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I30">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J30">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N30">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O30">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P30">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q30">
-        <v>1149.492782054354</v>
+        <v>1672.102268194614</v>
       </c>
       <c r="R30">
-        <v>10345.43503848918</v>
+        <v>15048.92041375153</v>
       </c>
       <c r="S30">
-        <v>0.04923021855702885</v>
+        <v>0.06483168657238177</v>
       </c>
       <c r="T30">
-        <v>0.04923021855702885</v>
+        <v>0.06483168657238177</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H31">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I31">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J31">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N31">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O31">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P31">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q31">
-        <v>642.41067431256</v>
+        <v>556.0186937226574</v>
       </c>
       <c r="R31">
-        <v>5781.69606881304</v>
+        <v>5004.168243503917</v>
       </c>
       <c r="S31">
-        <v>0.02751301999761506</v>
+        <v>0.02155826851352427</v>
       </c>
       <c r="T31">
-        <v>0.02751301999761506</v>
+        <v>0.02155826851352427</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>37.33544666666666</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H32">
-        <v>112.00634</v>
+        <v>105.073906</v>
       </c>
       <c r="I32">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J32">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N32">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O32">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P32">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q32">
-        <v>1684.989080129662</v>
+        <v>2192.147794472813</v>
       </c>
       <c r="R32">
-        <v>15164.90172116696</v>
+        <v>19729.33015025532</v>
       </c>
       <c r="S32">
-        <v>0.07216433367483978</v>
+        <v>0.08499518327012887</v>
       </c>
       <c r="T32">
-        <v>0.07216433367483979</v>
+        <v>0.08499518327012887</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>37.33544666666666</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H33">
-        <v>112.00634</v>
+        <v>105.073906</v>
       </c>
       <c r="I33">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J33">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>17.152367</v>
       </c>
       <c r="O33">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P33">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q33">
-        <v>213.4637611118644</v>
+        <v>200.2517997595002</v>
       </c>
       <c r="R33">
-        <v>1921.17385000678</v>
+        <v>1802.266197835502</v>
       </c>
       <c r="S33">
-        <v>0.009142177991549639</v>
+        <v>0.00776427504735149</v>
       </c>
       <c r="T33">
-        <v>0.009142177991549641</v>
+        <v>0.007764275047351488</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>37.33544666666666</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H34">
-        <v>112.00634</v>
+        <v>105.073906</v>
       </c>
       <c r="I34">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J34">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N34">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O34">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P34">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q34">
-        <v>529.0968431874843</v>
+        <v>564.7484630226086</v>
       </c>
       <c r="R34">
-        <v>4761.87158868736</v>
+        <v>5082.736167203478</v>
       </c>
       <c r="S34">
-        <v>0.02266004070195389</v>
+        <v>0.0218967440229886</v>
       </c>
       <c r="T34">
-        <v>0.0226600407019539</v>
+        <v>0.0218967440229886</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>37.33544666666666</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H35">
-        <v>112.00634</v>
+        <v>105.073906</v>
       </c>
       <c r="I35">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J35">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N35">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O35">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P35">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q35">
-        <v>1226.782791849022</v>
+        <v>398.4520081545936</v>
       </c>
       <c r="R35">
-        <v>11041.0451266412</v>
+        <v>3586.068073391342</v>
       </c>
       <c r="S35">
-        <v>0.05254037772798613</v>
+        <v>0.01544900464413946</v>
       </c>
       <c r="T35">
-        <v>0.05254037772798614</v>
+        <v>0.01544900464413946</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>37.33544666666666</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H36">
-        <v>112.00634</v>
+        <v>105.073906</v>
       </c>
       <c r="I36">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J36">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N36">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O36">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P36">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q36">
-        <v>1065.222158880862</v>
+        <v>1280.047670828144</v>
       </c>
       <c r="R36">
-        <v>9586.999429927761</v>
+        <v>11520.42903745329</v>
       </c>
       <c r="S36">
-        <v>0.04562109524495933</v>
+        <v>0.04963072592589694</v>
       </c>
       <c r="T36">
-        <v>0.04562109524495934</v>
+        <v>0.04963072592589695</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>37.33544666666666</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H37">
-        <v>112.00634</v>
+        <v>105.073906</v>
       </c>
       <c r="I37">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J37">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N37">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O37">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P37">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q37">
-        <v>595.3148171634</v>
+        <v>425.650061826097</v>
       </c>
       <c r="R37">
-        <v>5357.8333544706</v>
+        <v>3830.850556434874</v>
       </c>
       <c r="S37">
-        <v>0.02549600921096175</v>
+        <v>0.01650354282912355</v>
       </c>
       <c r="T37">
-        <v>0.02549600921096175</v>
+        <v>0.01650354282912355</v>
       </c>
     </row>
   </sheetData>
